--- a/uploads/tuesday schedule.xlsx
+++ b/uploads/tuesday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CB40A1-571E-4A04-8623-1CFB79FBA192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15349B4-67D0-462D-A043-BA0FBDCCE852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{43DC58DD-017E-41AC-A7BB-F1D7BE34C48E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="223">
   <si>
     <t>Names</t>
   </si>
@@ -755,6 +755,10 @@
   </si>
   <si>
     <t xml:space="preserve">T-Shirt Transportation Transport boxes of t-shirts from to the t-shirt stations. Put extra boxes under the corresponding tables and help table decorators arrange t-shirts on the tables.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-shirt transportation, but also get the pizza (you can take another extra person if you need. Take Nate's car, and don’t forget the card).
 </t>
   </si>
 </sst>
@@ -797,12 +801,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1143,17 +1146,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC089D5-1E42-4D72-BA7E-1371A9A4EDEB}">
   <dimension ref="A1:AB169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="W136" sqref="W136:AB169"/>
+    <sheetView tabSelected="1" topLeftCell="M169" workbookViewId="0">
+      <selection activeCell="X170" sqref="X170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
     <col min="11" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="145" x14ac:dyDescent="0.35">
@@ -1220,7 +1223,7 @@
       <c r="U1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>178</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -1232,13 +1235,13 @@
       <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1252,7 +1255,7 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1266,7 +1269,7 @@
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1280,7 +1283,7 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1294,7 +1297,7 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1308,7 +1311,7 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1322,7 +1325,7 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1336,7 +1339,7 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1359,7 +1362,7 @@
       <c r="K9" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1382,7 +1385,7 @@
       <c r="K10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1405,7 +1408,7 @@
       <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1428,7 +1431,7 @@
       <c r="K12" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1451,7 +1454,7 @@
       <c r="K13" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1474,7 +1477,7 @@
       <c r="K14" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1497,7 +1500,7 @@
       <c r="K15" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1520,7 +1523,7 @@
       <c r="K16" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1543,7 +1546,7 @@
       <c r="K17" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1566,7 +1569,7 @@
       <c r="K18" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1589,7 +1592,7 @@
       <c r="K19" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1612,7 +1615,7 @@
       <c r="K20" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1635,7 +1638,7 @@
       <c r="K21" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1658,7 +1661,7 @@
       <c r="K22" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1681,7 +1684,7 @@
       <c r="K23" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1704,7 +1707,7 @@
       <c r="K24" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1727,7 +1730,7 @@
       <c r="K25" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1750,7 +1753,7 @@
       <c r="K26" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1773,7 +1776,7 @@
       <c r="K27" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1796,7 +1799,7 @@
       <c r="K28" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1819,7 +1822,7 @@
       <c r="K29" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1842,7 +1845,7 @@
       <c r="K30" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1865,7 +1868,7 @@
       <c r="K31" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1888,7 +1891,7 @@
       <c r="K32" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1911,7 +1914,7 @@
       <c r="K33" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1934,7 +1937,7 @@
       <c r="K34" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1957,7 +1960,7 @@
       <c r="K35" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1980,7 +1983,7 @@
       <c r="K36" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2003,7 +2006,7 @@
       <c r="K37" t="s">
         <v>107</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2026,7 +2029,7 @@
       <c r="K38" t="s">
         <v>107</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2049,7 +2052,7 @@
       <c r="K39" t="s">
         <v>107</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2072,7 +2075,7 @@
       <c r="K40" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2095,7 +2098,7 @@
       <c r="K41" t="s">
         <v>107</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2118,7 +2121,7 @@
       <c r="K42" t="s">
         <v>107</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2141,7 +2144,7 @@
       <c r="K43" t="s">
         <v>107</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2164,7 +2167,7 @@
       <c r="K44" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2187,7 +2190,7 @@
       <c r="K45" t="s">
         <v>107</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2210,7 +2213,7 @@
       <c r="K46" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2233,7 +2236,7 @@
       <c r="K47" t="s">
         <v>107</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2256,7 +2259,7 @@
       <c r="K48" t="s">
         <v>107</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2279,7 +2282,7 @@
       <c r="K49" t="s">
         <v>107</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2302,7 +2305,7 @@
       <c r="K50" t="s">
         <v>107</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2325,7 +2328,7 @@
       <c r="K51" t="s">
         <v>107</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2348,7 +2351,7 @@
       <c r="K52" t="s">
         <v>107</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2371,7 +2374,7 @@
       <c r="K53" t="s">
         <v>107</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2394,7 +2397,7 @@
       <c r="K54" t="s">
         <v>107</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2417,7 +2420,7 @@
       <c r="K55" t="s">
         <v>107</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2440,7 +2443,7 @@
       <c r="K56" t="s">
         <v>107</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2463,7 +2466,7 @@
       <c r="K57" t="s">
         <v>107</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2486,7 +2489,7 @@
       <c r="K58" t="s">
         <v>107</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2509,7 +2512,7 @@
       <c r="K59" t="s">
         <v>107</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2532,7 +2535,7 @@
       <c r="K60" t="s">
         <v>107</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2555,7 +2558,7 @@
       <c r="K61" t="s">
         <v>107</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2578,7 +2581,7 @@
       <c r="K62" t="s">
         <v>107</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2601,7 +2604,7 @@
       <c r="K63" t="s">
         <v>107</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2624,7 +2627,7 @@
       <c r="K64" t="s">
         <v>107</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2647,7 +2650,7 @@
       <c r="K65" t="s">
         <v>107</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2670,7 +2673,7 @@
       <c r="K66" t="s">
         <v>107</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2693,7 +2696,7 @@
       <c r="K67" t="s">
         <v>107</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2716,7 +2719,7 @@
       <c r="K68" t="s">
         <v>107</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2739,7 +2742,7 @@
       <c r="K69" t="s">
         <v>107</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2762,7 +2765,7 @@
       <c r="K70" t="s">
         <v>107</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2785,7 +2788,7 @@
       <c r="K71" t="s">
         <v>107</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2808,7 +2811,7 @@
       <c r="K72" t="s">
         <v>107</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2831,7 +2834,7 @@
       <c r="K73" t="s">
         <v>107</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2854,7 +2857,7 @@
       <c r="K74" t="s">
         <v>107</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2877,7 +2880,7 @@
       <c r="K75" t="s">
         <v>107</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2900,7 +2903,7 @@
       <c r="K76" t="s">
         <v>107</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2923,7 +2926,7 @@
       <c r="K77" t="s">
         <v>107</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L77" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2946,7 +2949,7 @@
       <c r="K78" t="s">
         <v>107</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L78" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2969,7 +2972,7 @@
       <c r="K79" t="s">
         <v>107</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2992,7 +2995,7 @@
       <c r="K80" t="s">
         <v>107</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L80" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3015,7 +3018,7 @@
       <c r="K81" t="s">
         <v>107</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3038,7 +3041,7 @@
       <c r="K82" t="s">
         <v>107</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L82" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3061,7 +3064,7 @@
       <c r="K83" t="s">
         <v>107</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3084,7 +3087,7 @@
       <c r="K84" t="s">
         <v>107</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4132,25 +4135,25 @@
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="W137" s="3" t="s">
+      <c r="W137" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X137" s="3" t="s">
+      <c r="X137" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="Y137" s="3" t="s">
+      <c r="Y137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z137" s="3" t="s">
+      <c r="Z137" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA137" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB137" s="3" t="s">
+      <c r="AA137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB137" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4178,25 +4181,25 @@
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="W139" s="3" t="s">
+      <c r="W139" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X139" s="3" t="s">
+      <c r="X139" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Y139" s="3" t="s">
+      <c r="Y139" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z139" s="3" t="s">
+      <c r="Z139" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA139" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB139" s="3" t="s">
+      <c r="AA139" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB139" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4224,25 +4227,25 @@
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="W141" s="3" t="s">
+      <c r="W141" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X141" s="3" t="s">
+      <c r="X141" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Y141" s="3" t="s">
+      <c r="Y141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z141" s="3" t="s">
+      <c r="Z141" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA141" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB141" s="3" t="s">
+      <c r="AA141" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB141" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4270,25 +4273,25 @@
       </c>
     </row>
     <row r="143" spans="1:28" ht="58" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W143" s="3" t="s">
+      <c r="W143" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X143" s="3" t="s">
+      <c r="X143" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Y143" s="4" t="s">
+      <c r="Y143" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z143" s="3" t="s">
+      <c r="Z143" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA143" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB143" s="3" t="s">
+      <c r="AA143" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB143" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4316,25 +4319,25 @@
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="W145" s="3" t="s">
+      <c r="W145" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X145" s="3" t="s">
+      <c r="X145" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Y145" s="3" t="s">
+      <c r="Y145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z145" s="3" t="s">
+      <c r="Z145" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA145" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB145" s="3" t="s">
+      <c r="AA145" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB145" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4362,25 +4365,25 @@
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="W147" s="3" t="s">
+      <c r="W147" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X147" s="3" t="s">
+      <c r="X147" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Y147" s="3" t="s">
+      <c r="Y147" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z147" s="3" t="s">
+      <c r="Z147" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA147" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB147" s="3" t="s">
+      <c r="AA147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB147" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4408,25 +4411,25 @@
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="W149" s="3" t="s">
+      <c r="W149" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X149" s="3" t="s">
+      <c r="X149" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Y149" s="3" t="s">
+      <c r="Y149" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z149" s="3" t="s">
+      <c r="Z149" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA149" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB149" s="3" t="s">
+      <c r="AA149" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB149" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4454,25 +4457,25 @@
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="W151" s="3" t="s">
+      <c r="W151" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X151" s="3" t="s">
+      <c r="X151" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Y151" s="3" t="s">
+      <c r="Y151" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z151" s="3" t="s">
+      <c r="Z151" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA151" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB151" s="3" t="s">
+      <c r="AA151" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB151" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4500,25 +4503,25 @@
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="W153" s="3" t="s">
+      <c r="W153" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X153" s="3" t="s">
+      <c r="X153" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y153" s="3" t="s">
+      <c r="Y153" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z153" s="3" t="s">
+      <c r="Z153" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA153" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB153" s="3" t="s">
+      <c r="AA153" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB153" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4546,25 +4549,25 @@
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="W155" s="3" t="s">
+      <c r="W155" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X155" s="3" t="s">
+      <c r="X155" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y155" s="3" t="s">
+      <c r="Y155" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z155" s="3" t="s">
+      <c r="Z155" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA155" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB155" s="3" t="s">
+      <c r="AA155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB155" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4592,25 +4595,25 @@
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="W157" s="3" t="s">
+      <c r="W157" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X157" s="3" t="s">
+      <c r="X157" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Y157" s="3" t="s">
+      <c r="Y157" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z157" s="3" t="s">
+      <c r="Z157" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA157" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB157" s="3" t="s">
+      <c r="AA157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB157" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4638,25 +4641,25 @@
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="W159" s="3" t="s">
+      <c r="W159" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X159" s="3" t="s">
+      <c r="X159" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Y159" s="3" t="s">
+      <c r="Y159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z159" s="3" t="s">
+      <c r="Z159" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA159" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB159" s="3" t="s">
+      <c r="AA159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4684,25 +4687,25 @@
       </c>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="W161" s="3" t="s">
+      <c r="W161" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X161" s="3" t="s">
+      <c r="X161" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Y161" s="3" t="s">
+      <c r="Y161" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z161" s="3" t="s">
+      <c r="Z161" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA161" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB161" s="3" t="s">
+      <c r="AA161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB161" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4730,25 +4733,25 @@
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="W163" s="3" t="s">
+      <c r="W163" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X163" s="3" t="s">
+      <c r="X163" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Y163" s="3" t="s">
+      <c r="Y163" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z163" s="3" t="s">
+      <c r="Z163" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA163" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB163" s="3" t="s">
+      <c r="AA163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB163" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4776,25 +4779,25 @@
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="W165" s="3" t="s">
+      <c r="W165" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X165" s="3" t="s">
+      <c r="X165" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Y165" s="3" t="s">
+      <c r="Y165" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z165" s="3" t="s">
+      <c r="Z165" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA165" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB165" s="3" t="s">
+      <c r="AA165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB165" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4822,25 +4825,25 @@
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="W167" s="3" t="s">
+      <c r="W167" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="X167" s="3" t="s">
+      <c r="X167" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="Y167" s="3" t="s">
+      <c r="Y167" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z167" s="3" t="s">
+      <c r="Z167" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA167" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB167" s="3" t="s">
+      <c r="AA167" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB167" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4867,26 +4870,26 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:28" ht="261" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="W169" s="3" t="s">
+      <c r="W169" s="2" t="s">
         <v>210</v>
       </c>
       <c r="X169" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y169" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y169" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z169" s="3" t="s">
+      <c r="Z169" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA169" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB169" s="3" t="s">
+      <c r="AA169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB169" s="2" t="s">
         <v>158</v>
       </c>
     </row>
